--- a/pred_ohlcv/54_21/2020-01-11 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BTC ohlcv.xlsx
@@ -2446,7 +2446,7 @@
         <v>-32.15709316999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-36.58429316999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-19.77117607000002</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-21.35637607000002</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-21.30147607000002</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-22.23697607000003</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-22.28297607000003</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-22.37827607000003</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-23.12607607000003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-17.55306059000003</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-13.47386059000003</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-13.47386059000003</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-13.41626059000003</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-13.47626059000003</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>7.575627379999976</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>13.75812737999998</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>7.282058229999976</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>7.317702709999976</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>7.342602709999976</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>7.263102709999975</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>8.573002709999976</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>9.552302709999976</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>9.641302709999977</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>9.698702709999976</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>6.300202709999976</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>6.294902709999976</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>7.340802709999975</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>9.654680429999974</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>9.717480429999974</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>9.600580429999974</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>4.788409949999973</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>5.864009949999972</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>22.52620994999997</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>36.06511223999997</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>53.41353198999997</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>58.65768116999997</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>59.24478110999997</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>61.43278121999997</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>75.02018121999997</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>81.82008121999996</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>73.37296063999996</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>64.53276063999996</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>63.49996063999996</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>62.11306063999996</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>58.62706063999997</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>47.49346063999997</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>45.30276063999997</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>45.06066063999997</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>48.14419007999997</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>44.86029007999996</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>45.43932021999996</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>45.33452021999997</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>45.21072021999996</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>44.94602021999997</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>41.90422019999997</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>41.90422019999997</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>41.73722019999997</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>38.83172019999996</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>35.00682019999996</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>31.03102021999996</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>30.54242021999996</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>31.42922021999996</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>30.36832024999996</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>30.67732024999996</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>29.83042024999996</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>29.70872024999996</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>29.44052024999996</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>29.66252024999996</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>29.58322024999996</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>29.24342024999996</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>29.92122024999996</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>30.64312024999996</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>30.64312024999996</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>30.90122024999996</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>31.49882024999996</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>31.18822024999996</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>22.05442024999996</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>21.33852024999996</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-92.98588915000003</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-90.92048915000004</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-91.18758915000004</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-90.91938915000004</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-85.56908915000004</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-85.77518915000005</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-86.77818915000005</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-73.49499707000005</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-73.51189707000006</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-73.46650035000006</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-73.30349707000006</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-73.12769707000007</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-73.37779707000007</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-73.83899707000008</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-72.47169707000008</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-65.30789707000008</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-65.07833363000007</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-65.08983363000007</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-64.04433363000007</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-64.12703363000007</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-64.18853363000007</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-64.69873363000006</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-64.69873363000006</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-57.33233363000006</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-80.87290022000008</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-76.38680022000008</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-74.79852837000008</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-67.25424468000006</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-376.9195932600001</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-407.74351674</v>
       </c>
       <c r="H1009">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-409.7673186900001</v>
       </c>
       <c r="H1018">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-403.7865779600001</v>
       </c>
       <c r="H1022">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-403.6576779600001</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-403.9103189300001</v>
       </c>
       <c r="H1024">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-396.8951189300001</v>
       </c>
       <c r="H1025">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-400.6668081100001</v>
       </c>
       <c r="H1026">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-397.3213081100001</v>
       </c>
       <c r="H1027">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-396.0462081100001</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-395.8955171200001</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-367.3507280600001</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-366.4671280600001</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-352.2343453500001</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-239.20475893</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-239.20475893</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-231.24245893</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-245.48062266</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-236.62032266</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-219.59332402</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-228.62602431</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-227.19583241</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-152.92787143</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-130.13280221</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-118.37879673</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-121.97349673</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-135.88034122</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-141.40377008</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-134.62179894</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-128.69906483</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-139.83876483</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-126.55731255</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-111.12940165</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-114.7873571</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-114.1840571</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-105.86984201</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-114.25929182</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-107.1583167</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-116.88492664</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-129.46496178</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-127.70325166</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-136.35494651</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-145.86323618</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-151.78663618</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-125.71214255</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-125.83572054</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-138.90165262</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-153.16155262</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-175.82275262</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-162.26931699</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-154.32371576</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-159.29131576</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-157.11711699</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-155.53561699</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-144.04095778</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-145.48084578</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-147.99034578</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-148.54374578</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-140.8959356</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-136.03574578</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-133.10784578</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-147.2165915</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-137.3424454300001</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-122.8474202900001</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-111.8489866400001</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-88.08835431000006</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-83.34853815000005</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-70.31113815000005</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-90.98995881000005</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BTC ohlcv.xlsx
@@ -2446,7 +2446,7 @@
         <v>-32.15709316999999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-36.58429316999999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-19.77117607000002</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-21.35637607000002</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-21.30147607000002</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-22.23697607000003</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-22.28297607000003</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-22.37827607000003</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-23.12607607000003</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-17.55306059000003</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-13.47386059000003</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-13.47386059000003</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-13.41626059000003</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-13.47626059000003</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>7.575627379999976</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>13.75812737999998</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>7.282058229999976</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>7.317702709999976</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>7.342602709999976</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>7.263102709999975</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>8.573002709999976</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>9.552302709999976</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>9.641302709999977</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>9.698702709999976</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>6.300202709999976</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>6.294902709999976</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>7.340802709999975</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>9.654680429999974</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>9.717480429999974</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>9.600580429999974</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>4.788409949999973</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>5.864009949999972</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>22.52620994999997</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>36.06511223999997</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>62.82397799999997</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>53.41353198999997</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>58.65768116999997</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>59.24478110999997</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>61.43278121999997</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>75.02018121999997</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>81.82008121999996</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>73.37296063999996</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>64.53276063999996</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>63.49996063999996</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>62.11306063999996</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>58.62706063999997</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>47.49346063999997</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>45.30276063999997</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>45.06066063999997</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>48.14419007999997</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>44.86029007999996</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>45.43932021999996</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>45.33452021999997</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>45.21072021999996</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>44.94602021999997</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>41.90422019999997</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>41.90422019999997</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>41.73722019999997</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>38.83172019999996</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>35.00682019999996</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>31.03102021999996</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>30.54242021999996</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>31.42922021999996</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>30.36832024999996</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>30.67732024999996</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>29.83042024999996</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>29.70872024999996</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>29.44052024999996</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>29.66252024999996</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>29.58322024999996</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>29.24342024999996</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>29.92122024999996</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>30.64312024999996</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>30.64312024999996</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>30.90122024999996</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>31.49882024999996</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>31.18822024999996</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>22.05442024999996</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>21.33852024999996</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-92.98588915000003</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-90.92048915000004</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-91.18758915000004</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-90.91938915000004</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-85.56908915000004</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-85.77518915000005</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-86.77818915000005</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-73.49499707000005</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-73.51189707000006</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-73.46650035000006</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-73.30349707000006</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-73.12769707000007</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-73.37779707000007</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-73.83899707000008</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-72.47169707000008</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-65.30789707000008</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-65.07833363000007</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-65.08983363000007</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-64.04433363000007</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-64.12703363000007</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-64.18853363000007</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-64.69873363000006</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-64.69873363000006</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-57.33233363000006</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-80.87290022000008</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-76.38680022000008</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-74.79852837000008</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-67.25424468000006</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-407.74351674</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-419.77796926</v>
       </c>
       <c r="H1011">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-400.34419705</v>
       </c>
       <c r="H1012">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-403.6576779600001</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-403.9103189300001</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-396.8951189300001</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-400.6668081100001</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-397.3213081100001</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-363.5444933900001</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-352.2343453500001</v>
       </c>
       <c r="H1042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-239.20475893</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-239.20475893</v>
       </c>
       <c r="H1147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-231.24245893</v>
       </c>
       <c r="H1148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-245.48062266</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-236.62032266</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-219.59332402</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-228.62602431</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-227.19583241</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-152.92787143</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-130.13280221</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-118.37879673</v>
       </c>
       <c r="H1164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-121.97349673</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-135.88034122</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-141.40377008</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-134.62179894</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-128.69906483</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-139.83876483</v>
       </c>
       <c r="H1170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-126.55731255</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-111.12940165</v>
       </c>
       <c r="H1172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-114.7873571</v>
       </c>
       <c r="H1173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-114.1840571</v>
       </c>
       <c r="H1174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-105.86984201</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-114.25929182</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-107.1583167</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-116.88492664</v>
       </c>
       <c r="H1178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-129.46496178</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-127.70325166</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-136.35494651</v>
       </c>
       <c r="H1181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-145.86323618</v>
       </c>
       <c r="H1182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-151.78663618</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-125.71214255</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-125.83572054</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-138.90165262</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-153.16155262</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-175.82275262</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-162.26931699</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-154.32371576</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-159.29131576</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-157.11711699</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-155.53561699</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-144.04095778</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-145.48084578</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-147.99034578</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-148.54374578</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-140.8959356</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-136.03574578</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-133.10784578</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-147.2165915</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-137.3424454300001</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-122.8474202900001</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-111.8489866400001</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-88.08835431000006</v>
       </c>
       <c r="H1206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-83.34853815000005</v>
       </c>
       <c r="H1207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-70.31113815000005</v>
       </c>
       <c r="H1208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-90.98995881000005</v>
       </c>
       <c r="H1209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-28.73493014000005</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-47.07777058000005</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-37.75221102000005</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-29.16521092000005</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-45.25565382000005</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-48.80526365000005</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-52.91336365000005</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-57.27436365000005</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-35.33556365000005</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-24.25236365000005</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-36.67716365000005</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-39.34930177000005</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-37.37586874000004</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-37.37586874000004</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-46.91796874000004</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-51.52106874000004</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-52.93798105000004</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-51.28908105000004</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-61.07428105000004</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-66.29848105000003</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-75.20108105000003</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-75.11238105000002</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-79.01478105000002</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-79.01478105000002</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-67.14158105000003</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-70.32349177000003</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-74.05809177000003</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-79.44093536000003</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-85.03670010000002</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-86.39320014000002</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-50.06425222000001</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-54.52482657000002</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-49.56154656000002</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-57.48454656000002</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-61.53348408000002</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-66.97599933000002</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-69.25139933000003</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-64.11550488000003</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-62.61920488000003</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-54.62560488000003</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-53.44250488000003</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-53.44250488000003</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-51.90077516000003</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-61.22711654000003</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-66.50921654000004</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-69.14111656000004</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-75.41567808000005</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-70.99917808000005</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-96.30340792000005</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-98.47730787000006</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
